--- a/Data/All_strains_SCStimes.xlsx
+++ b/Data/All_strains_SCStimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kienphan/WorkingSpace/Python/ChromosomeSegeation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0266AA7B-0BE2-A14A-B856-409FEFC46DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1F8846-697B-F44C-917F-72F2D45576A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>wildtype12</t>
   </si>
@@ -50,12 +50,18 @@
   <si>
     <t>initialProteins32</t>
   </si>
+  <si>
+    <t>degRateAPC12</t>
+  </si>
+  <si>
+    <t>degRateAPC32</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +88,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -131,6 +143,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -358,10 +371,11 @@
     <col min="3" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="6" width="22.1640625" customWidth="1"/>
     <col min="7" max="8" width="26.1640625" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="9" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -386,8 +400,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>-3.5</v>
       </c>
@@ -412,8 +432,14 @@
       <c r="H2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -438,8 +464,14 @@
       <c r="H3" s="3">
         <v>-31.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>-78</v>
+      </c>
+      <c r="J3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -464,8 +496,14 @@
       <c r="H4" s="3">
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>-106</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3.5</v>
       </c>
@@ -490,8 +528,14 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>-43</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>21</v>
       </c>
@@ -516,8 +560,14 @@
       <c r="H6" s="3">
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>-29</v>
+      </c>
+      <c r="J6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>10.5</v>
       </c>
@@ -542,8 +592,14 @@
       <c r="H7" s="3">
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>34</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>-38.5</v>
       </c>
@@ -568,8 +624,14 @@
       <c r="H8" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>139</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>21</v>
       </c>
@@ -594,8 +656,14 @@
       <c r="H9" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>-15</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>-59.5</v>
       </c>
@@ -620,8 +688,14 @@
       <c r="H10" s="3">
         <v>-14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>-31.5</v>
       </c>
@@ -646,8 +720,14 @@
       <c r="H11" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>24.5</v>
       </c>
@@ -672,8 +752,14 @@
       <c r="H12" s="3">
         <v>-10.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3.5</v>
       </c>
@@ -698,8 +784,14 @@
       <c r="H13" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>-57</v>
+      </c>
+      <c r="J13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>21</v>
       </c>
@@ -724,8 +816,14 @@
       <c r="H14" s="3">
         <v>-7</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>76</v>
+      </c>
+      <c r="J14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3.5</v>
       </c>
@@ -750,8 +848,14 @@
       <c r="H15" s="3">
         <v>-10.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>-49</v>
       </c>
@@ -776,8 +880,14 @@
       <c r="H16" s="3">
         <v>-14</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>3.5</v>
       </c>
@@ -802,8 +912,14 @@
       <c r="H17" s="3">
         <v>-14</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>-1</v>
+      </c>
+      <c r="J17">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>-7</v>
       </c>
@@ -828,8 +944,14 @@
       <c r="H18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>-15</v>
+      </c>
+      <c r="J18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -854,8 +976,14 @@
       <c r="H19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>48</v>
+      </c>
+      <c r="J19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>56</v>
       </c>
@@ -880,8 +1008,14 @@
       <c r="H20" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>34</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17.5</v>
       </c>
@@ -906,8 +1040,14 @@
       <c r="H21" s="3">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>-22</v>
+      </c>
+      <c r="J21">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -932,8 +1072,14 @@
       <c r="H22" s="3">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>-22</v>
+      </c>
+      <c r="J22">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>-14</v>
       </c>
@@ -958,8 +1104,14 @@
       <c r="H23" s="3">
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>-8</v>
+      </c>
+      <c r="J23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>3.5</v>
       </c>
@@ -984,8 +1136,14 @@
       <c r="H24" s="3">
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>-15</v>
+      </c>
+      <c r="J24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>-49</v>
       </c>
@@ -1010,8 +1168,14 @@
       <c r="H25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>-14</v>
       </c>
@@ -1036,8 +1200,14 @@
       <c r="H26" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>69</v>
+      </c>
+      <c r="J26">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>-56</v>
       </c>
@@ -1062,8 +1232,14 @@
       <c r="H27" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>-99</v>
+      </c>
+      <c r="J27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>17.5</v>
       </c>
@@ -1088,8 +1264,14 @@
       <c r="H28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>-29</v>
+      </c>
+      <c r="J28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>24.5</v>
       </c>
@@ -1111,8 +1293,14 @@
       <c r="G29" s="3">
         <v>16.611999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>13</v>
+      </c>
+      <c r="J29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>6.8150000000000004</v>
       </c>
@@ -1134,8 +1322,14 @@
       <c r="G30" s="3">
         <v>-11.378</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>-36</v>
+      </c>
+      <c r="J30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>-15.311999999999999</v>
       </c>
@@ -1157,8 +1351,14 @@
       <c r="G31" s="3">
         <v>-11.361000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>-29</v>
+      </c>
+      <c r="J31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>13.006</v>
       </c>
@@ -1180,8 +1380,14 @@
       <c r="G32" s="3">
         <v>23.635999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>-8</v>
+      </c>
+      <c r="J32">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>5.8970000000000002</v>
       </c>
@@ -1203,8 +1409,14 @@
       <c r="G33" s="3">
         <v>-32.391100000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>-141</v>
+      </c>
+      <c r="J33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>-15.108000000000001</v>
       </c>
@@ -1226,8 +1438,14 @@
       <c r="G34" s="3">
         <v>-11.394</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>125</v>
+      </c>
+      <c r="J34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>-50.48</v>
       </c>
@@ -1249,8 +1467,14 @@
       <c r="G35" s="3">
         <v>-70.897099999999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>-50</v>
+      </c>
+      <c r="J35">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>-1.1121000000000001</v>
       </c>
@@ -1272,8 +1496,14 @@
       <c r="G36" s="3">
         <v>2.6179999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>-29</v>
+      </c>
+      <c r="J36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>-57.120100000000001</v>
       </c>
@@ -1295,8 +1525,14 @@
       <c r="G37" s="3">
         <v>20.115100000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>-22</v>
+      </c>
+      <c r="J37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>-15.071999999999999</v>
       </c>
@@ -1318,8 +1554,14 @@
       <c r="G38" s="3">
         <v>-0.88599000000000006</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>-36</v>
+      </c>
+      <c r="J38">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>-15.122</v>
       </c>
@@ -1338,8 +1580,14 @@
       <c r="G39" s="3">
         <v>244.126</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>13</v>
+      </c>
+      <c r="J39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>-1.7130000000000001</v>
       </c>
@@ -1358,8 +1606,14 @@
       <c r="G40" s="3">
         <v>-39.384999999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>-1</v>
+      </c>
+      <c r="J40">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>26.914000000000001</v>
       </c>
@@ -1378,8 +1632,14 @@
       <c r="G41" s="3">
         <v>-28.876000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>-1</v>
+      </c>
+      <c r="J41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>-1.0089999999999999</v>
       </c>
@@ -1398,8 +1658,14 @@
       <c r="G42" s="3">
         <v>6.1210000000000004</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>-50</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40.880000000000003</v>
       </c>
@@ -1415,8 +1681,14 @@
       <c r="G43" s="3">
         <v>-11.392099999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>-29</v>
+      </c>
+      <c r="J43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>-1.1119000000000001</v>
       </c>
@@ -1432,8 +1704,14 @@
       <c r="G44" s="3">
         <v>16.613</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>-8.1137999999999995</v>
       </c>
@@ -1449,8 +1727,14 @@
       <c r="G45" s="3">
         <v>23.619</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>-8</v>
+      </c>
+      <c r="J45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>-10.315899999999999</v>
       </c>
@@ -1466,8 +1750,14 @@
       <c r="G46" s="3">
         <v>-21.888000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>-8</v>
+      </c>
+      <c r="J46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>-1.1079000000000001</v>
       </c>
@@ -1483,8 +1773,14 @@
       <c r="G47" s="3">
         <v>2.6150000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>69</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>-1.01</v>
       </c>
@@ -1500,8 +1796,14 @@
       <c r="G48" s="3">
         <v>-25.388999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>34</v>
+      </c>
+      <c r="J48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>-1.1111</v>
       </c>
@@ -1517,8 +1819,14 @@
       <c r="G49" s="3">
         <v>2.6190000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>-8</v>
+      </c>
+      <c r="J49">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>5.9669999999999996</v>
       </c>
@@ -1534,8 +1842,14 @@
       <c r="G50" s="3">
         <v>-14.864000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>20</v>
+      </c>
+      <c r="J50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>12.923999999999999</v>
       </c>
@@ -1551,8 +1865,14 @@
       <c r="G51" s="3">
         <v>-88.394999999999996</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>-57</v>
+      </c>
+      <c r="J51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>19.974</v>
       </c>
@@ -1568,8 +1888,14 @@
       <c r="G52" s="3">
         <v>-18.399999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>-50</v>
+      </c>
+      <c r="J52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>-1.0569999999999999</v>
       </c>
@@ -1585,8 +1911,14 @@
       <c r="G53" s="3">
         <v>30.609000000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>48</v>
+      </c>
+      <c r="J53">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>-29.1069</v>
       </c>
@@ -1602,8 +1934,14 @@
       <c r="G54" s="3">
         <v>-7.89</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>41</v>
+      </c>
+      <c r="J54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>-1.099</v>
       </c>
@@ -1619,8 +1957,14 @@
       <c r="G55" s="3">
         <v>6.12</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>-92</v>
+      </c>
+      <c r="J55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>5.9131</v>
       </c>
@@ -1636,8 +1980,14 @@
       <c r="G56" s="3">
         <v>-4.3730000000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>-22</v>
+      </c>
+      <c r="J56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>-15.077999999999999</v>
       </c>
@@ -1653,8 +2003,14 @@
       <c r="G57" s="3">
         <v>23.617000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>-43</v>
+      </c>
+      <c r="J57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>-8.08</v>
       </c>
@@ -1670,8 +2026,14 @@
       <c r="G58" s="3">
         <v>13.125999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>-15</v>
+      </c>
+      <c r="J58">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>-1.0049999999999999</v>
       </c>
@@ -1687,8 +2049,14 @@
       <c r="G59" s="3">
         <v>41.128999999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>-8</v>
+      </c>
+      <c r="J59">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>5.8939000000000004</v>
       </c>
@@ -1704,8 +2072,14 @@
       <c r="G60" s="3">
         <v>2.6179999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>34</v>
+      </c>
+      <c r="J60">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>5.9099000000000004</v>
       </c>
@@ -1721,8 +2095,14 @@
       <c r="G61" s="3">
         <v>13.109</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>-120</v>
+      </c>
+      <c r="J61">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>-1.099</v>
       </c>
@@ -1738,8 +2118,14 @@
       <c r="G62" s="3">
         <v>13.108000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>-64</v>
+      </c>
+      <c r="J62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>-1.0089999999999999</v>
       </c>
@@ -1755,8 +2141,14 @@
       <c r="G63" s="3">
         <v>13.111000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>-36</v>
+      </c>
+      <c r="J63">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>-15.023899999999999</v>
       </c>
@@ -1772,8 +2164,14 @@
       <c r="G64" s="3">
         <v>9.6229999999999993</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>20</v>
+      </c>
+      <c r="J64">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>-8.0061</v>
       </c>
@@ -1789,8 +2187,14 @@
       <c r="G65" s="3">
         <v>13.111000000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>-1</v>
+      </c>
+      <c r="J65">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>-19.818999999999999</v>
       </c>
@@ -1806,8 +2210,14 @@
       <c r="G66" s="3">
         <v>-21.872</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>-15</v>
+      </c>
+      <c r="J66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>5.9779999999999998</v>
       </c>
@@ -1823,8 +2233,14 @@
       <c r="G67" s="3">
         <v>-11.377000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>-71</v>
+      </c>
+      <c r="J67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>9.5178999999999991</v>
       </c>
@@ -1840,8 +2256,14 @@
       <c r="G68" s="3">
         <v>-74.399000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>-22</v>
+      </c>
+      <c r="J68">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>12.99</v>
       </c>
@@ -1857,8 +2279,14 @@
       <c r="G69" s="3">
         <v>20.129000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>97</v>
+      </c>
+      <c r="J69">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>-22.145</v>
       </c>
@@ -1874,8 +2302,14 @@
       <c r="G70" s="3">
         <v>2.617</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>-1</v>
+      </c>
+      <c r="J70">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>-14.3348</v>
       </c>
@@ -1891,8 +2325,14 @@
       <c r="G71" s="3">
         <v>9.625</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>-7</v>
+      </c>
+      <c r="J71">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>-15.008100000000001</v>
       </c>
@@ -1908,8 +2348,14 @@
       <c r="G72" s="3">
         <v>23.620100000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>-22</v>
+      </c>
+      <c r="J72">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>-8.0120000000000005</v>
       </c>
@@ -1925,8 +2371,14 @@
       <c r="G73" s="3">
         <v>55.13</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>-204</v>
+      </c>
+      <c r="J73">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>-29.009</v>
       </c>
@@ -1942,8 +2394,14 @@
       <c r="G74" s="3">
         <v>-21.887</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>27</v>
+      </c>
+      <c r="J74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>-8.0719999999999992</v>
       </c>
@@ -1959,8 +2417,14 @@
       <c r="G75" s="3">
         <v>13.127000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>6</v>
+      </c>
+      <c r="J75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>5.9729999999999999</v>
       </c>
@@ -1973,8 +2437,14 @@
       <c r="G76" s="3">
         <v>13.125999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>-36</v>
+      </c>
+      <c r="J76">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>5.9790000000000001</v>
       </c>
@@ -1987,8 +2457,14 @@
       <c r="G77" s="3">
         <v>16.614000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>-1</v>
+      </c>
+      <c r="J77">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>12.996</v>
       </c>
@@ -2001,8 +2477,14 @@
       <c r="G78" s="3">
         <v>-63.872</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>-71</v>
+      </c>
+      <c r="J78">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>-1.0049999999999999</v>
       </c>
@@ -2015,8 +2497,14 @@
       <c r="G79" s="3">
         <v>23.62</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>125</v>
+      </c>
+      <c r="J79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>-15.0229</v>
       </c>
@@ -2029,8 +2517,11 @@
       <c r="G80" s="3">
         <v>-7.875</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>-1.0111000000000001</v>
       </c>
@@ -2043,8 +2534,11 @@
       <c r="G81" s="3">
         <v>16.613</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>5.9939999999999998</v>
       </c>
@@ -2057,8 +2551,11 @@
       <c r="G82" s="3">
         <v>27.122</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>-15.0181</v>
       </c>
@@ -2071,8 +2568,11 @@
       <c r="G83" s="3">
         <v>30.626000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>5.9950000000000001</v>
       </c>
@@ -2085,8 +2585,11 @@
       <c r="G84" s="3">
         <v>-25.375</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>-1.0069999999999999</v>
       </c>
@@ -2099,8 +2602,11 @@
       <c r="G85" s="3">
         <v>9.6229999999999993</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>-29.015899999999998</v>
       </c>
@@ -2113,8 +2619,11 @@
       <c r="G86" s="3">
         <v>20.129000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>-1.0078</v>
       </c>
@@ -2127,8 +2636,11 @@
       <c r="G87" s="3">
         <v>2.6139999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>-22.0151</v>
       </c>
@@ -2141,8 +2653,11 @@
       <c r="G88" s="3">
         <v>-14.881</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>12.991</v>
       </c>
@@ -2155,8 +2670,11 @@
       <c r="G89" s="3">
         <v>2.6190000000000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>5.9889999999999999</v>
       </c>
@@ -2169,8 +2687,11 @@
       <c r="G90" s="3">
         <v>-0.88698999999999995</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>26.995000000000001</v>
       </c>
@@ -2183,8 +2704,11 @@
       <c r="G91" s="3">
         <v>-14.881</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>-15.221</v>
       </c>
@@ -2197,8 +2721,11 @@
       <c r="G92" s="3">
         <v>-4.3890000000000002</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>12.984</v>
       </c>
@@ -2211,8 +2738,11 @@
       <c r="G93" s="3">
         <v>-4.3879999999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>-8.0139999999999993</v>
       </c>
@@ -2225,8 +2755,11 @@
       <c r="G94" s="3">
         <v>-39.402000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>-1.0069999999999999</v>
       </c>
@@ -2239,8 +2772,11 @@
       <c r="G95" s="3">
         <v>-14.882999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>-15.01</v>
       </c>
@@ -2253,8 +2789,11 @@
       <c r="G96" s="3">
         <v>-11.378</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>-15.010999999999999</v>
       </c>
@@ -2267,8 +2806,11 @@
       <c r="G97" s="3">
         <v>13.11</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>-8.0260999999999996</v>
       </c>
@@ -2281,8 +2823,11 @@
       <c r="G98" s="3">
         <v>212.63499999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>5.97</v>
       </c>
@@ -2295,8 +2840,11 @@
       <c r="G99" s="3">
         <v>-0.88497999999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>-28.9971</v>
       </c>
@@ -2309,8 +2857,11 @@
       <c r="G100" s="3">
         <v>13.127000000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>-1.0059</v>
       </c>
@@ -2323,8 +2874,11 @@
       <c r="G101" s="3">
         <v>13.111000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>6.0090000000000003</v>
       </c>
@@ -2337,8 +2891,11 @@
       <c r="G102" s="3">
         <v>-11.377000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I102">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>-8.0180000000000007</v>
       </c>
@@ -2351,8 +2908,11 @@
       <c r="G103" s="3">
         <v>-18.385000000000002</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I103">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>-15.036</v>
       </c>
@@ -2365,8 +2925,11 @@
       <c r="G104" s="3">
         <v>9.6199999999999992</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I104">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>-7.9911000000000003</v>
       </c>
@@ -2380,7 +2943,7 @@
         <v>-0.88695999999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>-8.0289000000000001</v>
       </c>
@@ -2394,7 +2957,7 @@
         <v>-4.37</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>-8.0138999999999996</v>
       </c>
@@ -2408,7 +2971,7 @@
         <v>-161.90799999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>34.005000000000003</v>
       </c>
@@ -2422,7 +2985,7 @@
         <v>-21.9</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>5.9718999999999998</v>
       </c>
@@ -2436,7 +2999,7 @@
         <v>20.116</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>-1.0078</v>
       </c>
@@ -2450,7 +3013,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>-1.01</v>
       </c>
@@ -2464,7 +3027,7 @@
         <v>-18.367000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>26.998999999999999</v>
       </c>
@@ -2478,7 +3041,7 @@
         <v>37.616999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>-29.016100000000002</v>
       </c>
@@ -2492,7 +3055,7 @@
         <v>16.614999999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>-29.012899999999998</v>
       </c>
@@ -2506,7 +3069,7 @@
         <v>6.1210000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>-1.0112000000000001</v>
       </c>
@@ -2520,7 +3083,7 @@
         <v>-7.891</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>19.9937</v>
       </c>
@@ -2534,7 +3097,7 @@
         <v>93.613</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>-15.010999999999999</v>
       </c>
@@ -2548,7 +3111,7 @@
         <v>16.594999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>5.9749999999999996</v>
       </c>
@@ -2562,7 +3125,7 @@
         <v>83.122</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>-15.009</v>
       </c>
@@ -2576,7 +3139,7 @@
         <v>-4.3879999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>5.9930000000000003</v>
       </c>
@@ -2590,7 +3153,7 @@
         <v>-4.3869999999999996</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>-7.9920999999999998</v>
       </c>
@@ -2604,7 +3167,7 @@
         <v>-28.891999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>12.993</v>
       </c>
@@ -2618,7 +3181,7 @@
         <v>-0.88599000000000006</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>-15.008100000000001</v>
       </c>
@@ -2632,7 +3195,7 @@
         <v>-32.380000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>-8.0070999999999994</v>
       </c>
@@ -2646,7 +3209,7 @@
         <v>-28.890999999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>-7.9870999999999999</v>
       </c>
@@ -2658,7 +3221,7 @@
       </c>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>-22</v>
       </c>
@@ -2670,7 +3233,7 @@
       </c>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>-1.0049999999999999</v>
       </c>
@@ -2682,7 +3245,7 @@
       </c>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B128" s="2">
         <v>-1.0071000000000001</v>
       </c>
@@ -2691,7 +3254,7 @@
       </c>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B129" s="2">
         <v>-8.0129000000000001</v>
       </c>
@@ -2700,7 +3263,7 @@
       </c>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B130" s="2">
         <v>12.995799999999999</v>
       </c>
@@ -2709,7 +3272,7 @@
       </c>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B131" s="2">
         <v>-8.0059000000000005</v>
       </c>
@@ -2718,7 +3281,7 @@
       </c>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B132" s="2">
         <v>19.996099999999998</v>
       </c>
@@ -2727,7 +3290,7 @@
       </c>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B133" s="2">
         <v>26.995100000000001</v>
       </c>
@@ -2736,7 +3299,7 @@
       </c>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B134" s="2">
         <v>12.993</v>
       </c>
@@ -2745,7 +3308,7 @@
       </c>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B135" s="2">
         <v>-8.0069999999999997</v>
       </c>
@@ -2754,7 +3317,7 @@
       </c>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B136" s="2">
         <v>-8.0139999999999993</v>
       </c>
@@ -2762,7 +3325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B137" s="2">
         <v>20.02</v>
       </c>
@@ -2770,7 +3333,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="138" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B138" s="2">
         <v>19.974900000000002</v>
       </c>
@@ -2778,7 +3341,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="139" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B139" s="2">
         <v>12.97</v>
       </c>
@@ -2786,7 +3349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B140" s="2">
         <v>26.9648</v>
       </c>
@@ -2794,7 +3357,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="141" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B141" s="2">
         <v>20.005099999999999</v>
       </c>
@@ -2802,7 +3365,7 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="142" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B142" s="2">
         <v>-15.01</v>
       </c>
@@ -2810,7 +3373,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="143" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B143" s="2">
         <v>-1.0087999999999999</v>
       </c>
@@ -2818,7 +3381,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="144" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B144" s="2">
         <v>-1.0103</v>
       </c>
@@ -2826,7 +3389,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="145" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B145" s="2">
         <v>5.9941000000000004</v>
       </c>
@@ -2834,7 +3397,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="146" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B146" s="2">
         <v>47.962000000000003</v>
       </c>
@@ -2842,222 +3405,222 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F147" s="3">
         <v>52.5</v>
       </c>
     </row>
-    <row r="148" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F148" s="3">
         <v>17.5</v>
       </c>
     </row>
-    <row r="149" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F149" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F150" s="3">
         <v>-10.5</v>
       </c>
     </row>
-    <row r="151" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F151" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F152" s="3">
         <v>-10.5</v>
       </c>
     </row>
-    <row r="153" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F153" s="3">
         <v>-21</v>
       </c>
     </row>
-    <row r="154" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F154" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F155" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F156" s="3">
         <v>10.5</v>
       </c>
     </row>
-    <row r="157" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F157" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F158" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="159" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F159" s="3">
         <v>45.5</v>
       </c>
     </row>
-    <row r="160" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F160" s="3">
         <v>31.5</v>
       </c>
     </row>
-    <row r="161" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F161" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F162" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="163" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F163" s="3">
         <v>31.5</v>
       </c>
     </row>
-    <row r="164" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F164" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F165" s="3">
         <v>24.5</v>
       </c>
     </row>
-    <row r="166" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F166" s="3">
         <v>31.5</v>
       </c>
     </row>
-    <row r="167" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F167" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="168" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F168" s="3">
         <v>-24.5</v>
       </c>
     </row>
-    <row r="169" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F169" s="3">
         <v>-7</v>
       </c>
     </row>
-    <row r="170" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F170" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="171" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F171" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F172" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="173" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F173" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F174" s="3">
         <v>31.5</v>
       </c>
     </row>
-    <row r="175" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F175" s="3">
         <v>-28</v>
       </c>
     </row>
-    <row r="176" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F176" s="3">
         <v>-21</v>
       </c>
     </row>
-    <row r="177" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F177" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F178" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F179" s="3">
         <v>38.5</v>
       </c>
     </row>
-    <row r="180" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F180" s="3">
         <v>17.5</v>
       </c>
     </row>
-    <row r="181" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F181" s="3">
         <v>38.5</v>
       </c>
     </row>
-    <row r="182" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F182" s="3">
         <v>10.5</v>
       </c>
     </row>
-    <row r="183" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F183" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="184" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F184" s="3">
         <v>66.5</v>
       </c>
     </row>
-    <row r="185" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F185" s="3">
         <v>80.5</v>
       </c>
     </row>
-    <row r="186" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F186" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="187" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F187" s="3">
         <v>45.5</v>
       </c>
     </row>
-    <row r="188" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F188" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="189" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F189" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F190" s="3">
         <v>24.5</v>
       </c>

--- a/Data/All_strains_SCStimes.xlsx
+++ b/Data/All_strains_SCStimes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kienphan/WorkingSpace/Python/ChromosomeSegeation/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kienphan/WorkingSpace/ResearchProjs/ChromosomeSegeation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1F8846-697B-F44C-917F-72F2D45576A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EF590D-4E26-9746-A9B2-D833C42974E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,22 +39,22 @@
     <t>threshold32</t>
   </si>
   <si>
-    <t>degRate12</t>
-  </si>
-  <si>
-    <t>degRate32</t>
-  </si>
-  <si>
     <t>initialProteins12</t>
   </si>
   <si>
     <t>initialProteins32</t>
   </si>
   <si>
-    <t>degRateAPC12</t>
+    <t>degRadeAPC12</t>
   </si>
   <si>
-    <t>degRateAPC32</t>
+    <t>degRadeAPC32</t>
+  </si>
+  <si>
+    <t>degRade12</t>
+  </si>
+  <si>
+    <t>degRade32</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -389,22 +389,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
